--- a/калькулятор 4/прайсы новые 2018.xlsx
+++ b/калькулятор 4/прайсы новые 2018.xlsx
@@ -827,6 +827,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -836,7 +837,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1140,7 +1140,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1150,8 +1150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1185,7 +1185,7 @@
         <v>60</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E16" si="0">"&lt;li&gt;&lt;a href=""/Home/AddLi?zId=@Model.id&amp;tipProd="&amp;A3&amp;"""&gt;"&amp;B3&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <f t="shared" ref="E3:E15" si="0">"&lt;li&gt;&lt;a href=""/Home/AddLi?zId=@Model.id&amp;tipProd="&amp;A3&amp;"""&gt;"&amp;B3&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
         <v>&lt;li&gt;&lt;a href="/Home/AddLi?zId=@Model.id&amp;tipProd=3"&gt;Баннеры и ПВХ&lt;/a&gt;&lt;/li&gt;</v>
       </c>
       <c r="H3" t="str">
@@ -1389,7 +1389,7 @@
       <c r="A16">
         <v>16</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="40" t="s">
         <v>103</v>
       </c>
       <c r="E16" s="31" t="str">
@@ -1592,7 +1592,7 @@
       <c r="A30">
         <v>269</v>
       </c>
-      <c r="B30" s="43" t="s">
+      <c r="B30" s="40" t="s">
         <v>103</v>
       </c>
       <c r="C30">
@@ -2744,10 +2744,10 @@
       </c>
     </row>
     <row r="26" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="40"/>
+      <c r="B26" s="41"/>
     </row>
     <row r="27" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="21" t="s">
@@ -3443,10 +3443,10 @@
       <c r="R11" s="31"/>
     </row>
     <row r="12" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="41"/>
+      <c r="B12" s="42"/>
       <c r="R12" s="31"/>
     </row>
     <row r="13" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3650,10 +3650,10 @@
     </row>
     <row r="28" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="42" t="s">
+      <c r="A29" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="42"/>
+      <c r="B29" s="43"/>
     </row>
     <row r="30" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
@@ -3947,10 +3947,10 @@
       <c r="X9" s="31"/>
     </row>
     <row r="10" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="42"/>
+      <c r="B10" s="43"/>
       <c r="O10" s="31"/>
       <c r="P10" s="31"/>
       <c r="Q10" s="31"/>
@@ -4228,10 +4228,10 @@
     </row>
     <row r="23" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="42" t="s">
+      <c r="A24" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="42"/>
+      <c r="B24" s="43"/>
     </row>
     <row r="25" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
